--- a/results/150529-X13.2-1506-2015-EFC-Co-ops.xlsx
+++ b/results/150529-X13.2-1506-2015-EFC-Co-ops.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolja\Desktop\1506 - Rankings\okay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C21182-29D3-45E1-B163-7ACB20EC0ECB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X12.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">X12.2!#REF!</definedName>
-    <definedName name="Print_Area" localSheetId="0">X12.2!$A$1:$O$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'X12.2'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'X12.2'!$A$1:$O$88</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,14 +29,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
     <author>Kolja Hannemann</author>
     <author>Kolja</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1" shapeId="0">
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="2" shapeId="0">
+    <comment ref="F16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="2" shapeId="0">
+    <comment ref="G16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="2" shapeId="0">
+    <comment ref="H16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -290,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L16" authorId="2" shapeId="0">
+    <comment ref="L16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="2" shapeId="0">
+    <comment ref="M16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P17" authorId="2" shapeId="0">
+    <comment ref="P17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="2" shapeId="0">
+    <comment ref="Q17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="2" shapeId="0">
+    <comment ref="R17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -387,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="0" shapeId="0">
+    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -400,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H37" authorId="0" shapeId="0">
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -424,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="0" shapeId="0">
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F65" authorId="0" shapeId="0">
+    <comment ref="F65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -451,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H65" authorId="0" shapeId="0">
+    <comment ref="H65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="1" shapeId="0">
+    <comment ref="E66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -517,9 +518,6 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>29.05.-31.05.15</t>
-  </si>
-  <si>
     <t>Place:</t>
   </si>
   <si>
@@ -785,12 +783,15 @@
   </si>
   <si>
     <t>Borghesi, Roberto</t>
+  </si>
+  <si>
+    <t>29.05.2015-31.05.2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1739,6 +1740,414 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1751,15 +2160,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1772,12 +2172,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1790,14 +2184,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1807,17 +2193,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -1831,10 +2229,16 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1869,364 +2273,60 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2245,30 +2345,6 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -2281,30 +2357,6 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -2317,60 +2369,9 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2655,17 +2656,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle5">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG89"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+      <selection activeCell="I4" sqref="I4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
@@ -2701,35 +2702,35 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
       <c r="N2" s="1"/>
-      <c r="T2" s="11"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14" t="s">
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
       <c r="N3" s="1"/>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="U3" s="4" t="s">
@@ -2737,1527 +2738,1527 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="1"/>
+      <c r="T4" s="8">
+        <v>2</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="1"/>
-      <c r="T4" s="11">
-        <v>2</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="1"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="1"/>
-      <c r="T5" s="11"/>
-    </row>
-    <row r="6" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="127">
+        <v>42</v>
+      </c>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="1"/>
+      <c r="T6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="24">
-        <v>42</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="1"/>
-      <c r="T6" s="11" t="s">
+      <c r="U6" s="13">
+        <v>6</v>
+      </c>
+      <c r="V6" s="13"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+    </row>
+    <row r="7" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="27">
-        <v>6</v>
-      </c>
-      <c r="V6" s="27"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-    </row>
-    <row r="7" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="115">
+        <v>1.2</v>
+      </c>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="1"/>
+      <c r="T7" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="29">
-        <v>1.2</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="1"/>
-      <c r="T7" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="U7" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="30" t="s">
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20" t="s">
+      <c r="M8" s="126"/>
+      <c r="N8" s="1"/>
+      <c r="T8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="1"/>
-      <c r="T8" s="11" t="s">
+    </row>
+    <row r="9" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14" t="s">
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22" t="s">
+      <c r="M9" s="117"/>
+      <c r="N9" s="1"/>
+      <c r="T9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="1"/>
-      <c r="T9" s="11" t="s">
+    </row>
+    <row r="10" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="1"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="1"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="121">
+        <v>1506</v>
+      </c>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="1"/>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14">
-        <v>1506</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="1"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="33" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="142">
+        <v>1706</v>
+      </c>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="1"/>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="145"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="1"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+    </row>
+    <row r="15" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35">
-        <v>1706</v>
-      </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="1"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="1"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-    </row>
-    <row r="15" spans="1:24" s="44" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="52"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="132"/>
       <c r="S15" s="3">
         <v>6</v>
       </c>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
     </row>
     <row r="16" spans="1:24" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61" t="s">
+      <c r="F16" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="G16" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="H16" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65" t="s">
+      <c r="K16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="66" t="s">
+      <c r="L16" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="66" t="s">
+      <c r="M16" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="67" t="s">
+      <c r="N16" s="1"/>
+      <c r="P16" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="P16" s="68" t="s">
+      <c r="Q16" s="134"/>
+      <c r="R16" s="135"/>
+      <c r="T16" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="70"/>
-      <c r="T16" s="71" t="s">
+      <c r="U16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="1"/>
+      <c r="P17" s="49" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="1"/>
-      <c r="P17" s="81" t="s">
+      <c r="Q17" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="82" t="s">
+      <c r="R17" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="83" t="s">
+      <c r="U17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="139">
+        <v>1</v>
+      </c>
+      <c r="C18" s="52">
+        <v>1</v>
+      </c>
+      <c r="D18" s="52">
+        <v>1</v>
+      </c>
+      <c r="E18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="U17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="84">
-        <v>1</v>
-      </c>
-      <c r="C18" s="85">
-        <v>1</v>
-      </c>
-      <c r="D18" s="85">
-        <v>1</v>
-      </c>
-      <c r="E18" s="86" t="s">
+      <c r="F18" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="88">
+      <c r="G18" s="55">
         <v>18</v>
       </c>
-      <c r="H18" s="89">
+      <c r="H18" s="56">
         <v>5</v>
       </c>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91">
+      <c r="I18" s="57"/>
+      <c r="J18" s="58">
         <v>150</v>
       </c>
-      <c r="K18" s="92">
+      <c r="K18" s="59">
         <v>21.5</v>
       </c>
-      <c r="L18" s="93">
+      <c r="L18" s="60">
         <v>43.5</v>
       </c>
-      <c r="M18" s="94">
+      <c r="M18" s="61">
         <v>215</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="P18" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="96">
+      <c r="P18" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="63">
         <v>107.5</v>
       </c>
-      <c r="R18" s="97" t="s">
+      <c r="R18" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="T18" s="4">
         <v>12.5</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99">
+      <c r="B19" s="140"/>
+      <c r="C19" s="65">
         <v>1</v>
       </c>
-      <c r="D19" s="99">
+      <c r="D19" s="65">
         <v>1</v>
       </c>
-      <c r="E19" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="102">
+      <c r="E19" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="68">
         <v>38</v>
       </c>
-      <c r="H19" s="103">
+      <c r="H19" s="69">
         <v>2.5</v>
       </c>
-      <c r="I19" s="90"/>
-      <c r="J19" s="104">
+      <c r="I19" s="57"/>
+      <c r="J19" s="70">
         <v>150</v>
       </c>
-      <c r="K19" s="105">
+      <c r="K19" s="71">
         <v>21.5</v>
       </c>
-      <c r="L19" s="106">
+      <c r="L19" s="72">
         <v>43.5</v>
       </c>
-      <c r="M19" s="107">
+      <c r="M19" s="73">
         <v>215</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="P19" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q19" s="109">
+      <c r="P19" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="75">
         <v>107.5</v>
       </c>
-      <c r="R19" s="110" t="s">
+      <c r="R19" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="T19" s="4">
         <v>12.5</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="111"/>
-      <c r="C20" s="112">
+      <c r="B20" s="141"/>
+      <c r="C20" s="77">
         <v>1</v>
       </c>
-      <c r="D20" s="112">
+      <c r="D20" s="77">
         <v>1</v>
       </c>
-      <c r="E20" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="115">
+      <c r="E20" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="80">
         <v>11</v>
       </c>
-      <c r="H20" s="116">
+      <c r="H20" s="81">
         <v>5</v>
       </c>
-      <c r="I20" s="90"/>
-      <c r="J20" s="117">
+      <c r="I20" s="57"/>
+      <c r="J20" s="82">
         <v>150</v>
       </c>
-      <c r="K20" s="118">
+      <c r="K20" s="83">
         <v>21.5</v>
       </c>
-      <c r="L20" s="119">
+      <c r="L20" s="84">
         <v>43.5</v>
       </c>
-      <c r="M20" s="120">
+      <c r="M20" s="85">
         <v>215</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="P20" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q20" s="96">
+      <c r="P20" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="63">
         <v>107.5</v>
       </c>
-      <c r="R20" s="97" t="s">
+      <c r="R20" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="T20" s="4">
         <v>12.5</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="84">
-        <v>2</v>
-      </c>
-      <c r="C21" s="85">
-        <v>2</v>
-      </c>
-      <c r="D21" s="85">
-        <v>2</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="88">
+      <c r="B21" s="139">
+        <v>2</v>
+      </c>
+      <c r="C21" s="52">
+        <v>2</v>
+      </c>
+      <c r="D21" s="52">
+        <v>2</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="55">
         <v>10</v>
       </c>
-      <c r="H21" s="89">
+      <c r="H21" s="56">
         <v>7.5</v>
       </c>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91">
+      <c r="I21" s="57"/>
+      <c r="J21" s="58">
         <v>120</v>
       </c>
-      <c r="K21" s="92">
+      <c r="K21" s="59">
         <v>20</v>
       </c>
-      <c r="L21" s="93">
+      <c r="L21" s="60">
         <v>23.5</v>
       </c>
-      <c r="M21" s="94">
+      <c r="M21" s="61">
         <v>163.5</v>
       </c>
       <c r="N21" s="1"/>
-      <c r="P21" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="109">
+      <c r="P21" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="75">
         <v>81.75</v>
       </c>
-      <c r="R21" s="110" t="s">
+      <c r="R21" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="S21" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="T21" s="4">
         <v>20</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="98"/>
-      <c r="C22" s="99">
-        <v>2</v>
-      </c>
-      <c r="D22" s="99">
-        <v>2</v>
-      </c>
-      <c r="E22" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="102">
+      <c r="B22" s="140"/>
+      <c r="C22" s="65">
+        <v>2</v>
+      </c>
+      <c r="D22" s="65">
+        <v>2</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="68">
         <v>19</v>
       </c>
-      <c r="H22" s="103">
+      <c r="H22" s="69">
         <v>5</v>
       </c>
-      <c r="I22" s="90"/>
-      <c r="J22" s="104">
+      <c r="I22" s="57"/>
+      <c r="J22" s="70">
         <v>120</v>
       </c>
-      <c r="K22" s="105">
+      <c r="K22" s="71">
         <v>20</v>
       </c>
-      <c r="L22" s="106">
+      <c r="L22" s="72">
         <v>23.5</v>
       </c>
-      <c r="M22" s="107">
+      <c r="M22" s="73">
         <v>163.5</v>
       </c>
       <c r="N22" s="1"/>
-      <c r="P22" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q22" s="96">
+      <c r="P22" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="63">
         <v>81.75</v>
       </c>
-      <c r="R22" s="97" t="s">
+      <c r="R22" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="T22" s="4">
         <v>20</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="111"/>
-      <c r="C23" s="112">
-        <v>2</v>
-      </c>
-      <c r="D23" s="112">
-        <v>2</v>
-      </c>
-      <c r="E23" s="113" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="115">
+      <c r="B23" s="141"/>
+      <c r="C23" s="77">
+        <v>2</v>
+      </c>
+      <c r="D23" s="77">
+        <v>2</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="80">
         <v>6</v>
       </c>
-      <c r="H23" s="116">
+      <c r="H23" s="81">
         <v>7.5</v>
       </c>
-      <c r="I23" s="90"/>
-      <c r="J23" s="117">
+      <c r="I23" s="57"/>
+      <c r="J23" s="82">
         <v>120</v>
       </c>
-      <c r="K23" s="118">
+      <c r="K23" s="83">
         <v>20</v>
       </c>
-      <c r="L23" s="119">
+      <c r="L23" s="84">
         <v>23.5</v>
       </c>
-      <c r="M23" s="120">
+      <c r="M23" s="85">
         <v>163.5</v>
       </c>
       <c r="N23" s="1"/>
-      <c r="P23" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q23" s="109">
+      <c r="P23" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="75">
         <v>81.75</v>
       </c>
-      <c r="R23" s="110" t="s">
+      <c r="R23" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="T23" s="4">
         <v>20</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="84">
+      <c r="B24" s="139">
         <v>3</v>
       </c>
-      <c r="C24" s="85">
+      <c r="C24" s="52">
         <v>3</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="52">
         <v>3</v>
       </c>
-      <c r="E24" s="86" t="s">
+      <c r="E24" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="55">
+        <v>14</v>
+      </c>
+      <c r="H24" s="56">
+        <v>5</v>
+      </c>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58">
+        <v>96</v>
+      </c>
+      <c r="K24" s="59">
+        <v>21.5</v>
+      </c>
+      <c r="L24" s="60">
+        <v>15.5</v>
+      </c>
+      <c r="M24" s="61">
+        <v>133</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="P24" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="63">
+        <v>66.5</v>
+      </c>
+      <c r="R24" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F24" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="88">
-        <v>14</v>
-      </c>
-      <c r="H24" s="89">
-        <v>5</v>
-      </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="91">
-        <v>96</v>
-      </c>
-      <c r="K24" s="92">
-        <v>21.5</v>
-      </c>
-      <c r="L24" s="93">
-        <v>15.5</v>
-      </c>
-      <c r="M24" s="94">
-        <v>133</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="P24" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q24" s="96">
-        <v>66.5</v>
-      </c>
-      <c r="R24" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="T24" s="4">
         <v>8</v>
       </c>
       <c r="U24" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="140"/>
+      <c r="C25" s="65">
+        <v>3</v>
+      </c>
+      <c r="D25" s="65">
+        <v>3</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="68">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="98"/>
-      <c r="C25" s="99">
-        <v>3</v>
-      </c>
-      <c r="D25" s="99">
-        <v>3</v>
-      </c>
-      <c r="E25" s="100" t="s">
+      <c r="H25" s="69">
+        <v>2.5</v>
+      </c>
+      <c r="I25" s="57"/>
+      <c r="J25" s="70">
+        <v>96</v>
+      </c>
+      <c r="K25" s="71">
+        <v>21.5</v>
+      </c>
+      <c r="L25" s="72">
+        <v>15.5</v>
+      </c>
+      <c r="M25" s="73">
+        <v>133</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="P25" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="75">
+        <v>66.5</v>
+      </c>
+      <c r="R25" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F25" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="102">
-        <v>25</v>
-      </c>
-      <c r="H25" s="103">
-        <v>2.5</v>
-      </c>
-      <c r="I25" s="90"/>
-      <c r="J25" s="104">
-        <v>96</v>
-      </c>
-      <c r="K25" s="105">
-        <v>21.5</v>
-      </c>
-      <c r="L25" s="106">
-        <v>15.5</v>
-      </c>
-      <c r="M25" s="107">
-        <v>133</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="P25" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q25" s="109">
-        <v>66.5</v>
-      </c>
-      <c r="R25" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="T25" s="4">
         <v>8</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="111"/>
-      <c r="C26" s="112">
+      <c r="B26" s="141"/>
+      <c r="C26" s="77">
         <v>3</v>
       </c>
-      <c r="D26" s="112">
+      <c r="D26" s="77">
         <v>3</v>
       </c>
-      <c r="E26" s="113" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="115">
+      <c r="E26" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="80">
         <v>194</v>
       </c>
-      <c r="H26" s="116">
+      <c r="H26" s="81">
         <v>0.5</v>
       </c>
-      <c r="I26" s="90"/>
-      <c r="J26" s="117">
+      <c r="I26" s="57"/>
+      <c r="J26" s="82">
         <v>96</v>
       </c>
-      <c r="K26" s="118">
+      <c r="K26" s="83">
         <v>21.5</v>
       </c>
-      <c r="L26" s="119">
+      <c r="L26" s="84">
         <v>15.5</v>
       </c>
-      <c r="M26" s="120">
+      <c r="M26" s="85">
         <v>133</v>
       </c>
       <c r="N26" s="1"/>
-      <c r="P26" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q26" s="96">
+      <c r="P26" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="63">
         <v>66.5</v>
       </c>
-      <c r="R26" s="97" t="s">
-        <v>43</v>
+      <c r="R26" s="64" t="s">
+        <v>42</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T26" s="4">
         <v>8</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="84">
+      <c r="B27" s="139">
         <v>4</v>
       </c>
-      <c r="C27" s="85">
+      <c r="C27" s="52">
         <v>4</v>
       </c>
-      <c r="D27" s="85">
+      <c r="D27" s="52">
         <v>4</v>
       </c>
-      <c r="E27" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="88">
+      <c r="E27" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="55">
         <v>8</v>
       </c>
-      <c r="H27" s="89">
+      <c r="H27" s="56">
         <v>7.5</v>
       </c>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91">
+      <c r="I27" s="57"/>
+      <c r="J27" s="58">
         <v>84</v>
       </c>
-      <c r="K27" s="92">
+      <c r="K27" s="59">
         <v>20</v>
       </c>
-      <c r="L27" s="93">
+      <c r="L27" s="60">
         <v>6.5</v>
       </c>
-      <c r="M27" s="94">
+      <c r="M27" s="61">
         <v>110.5</v>
       </c>
       <c r="N27" s="1"/>
-      <c r="P27" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="109">
+      <c r="P27" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="75">
         <v>55.25</v>
       </c>
-      <c r="R27" s="110" t="s">
-        <v>43</v>
+      <c r="R27" s="76" t="s">
+        <v>42</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T27" s="4">
         <v>9</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="98"/>
-      <c r="C28" s="99">
+      <c r="B28" s="140"/>
+      <c r="C28" s="65">
         <v>4</v>
       </c>
-      <c r="D28" s="99">
+      <c r="D28" s="65">
         <v>4</v>
       </c>
-      <c r="E28" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="102">
+      <c r="E28" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="68">
         <v>128</v>
       </c>
-      <c r="H28" s="103">
+      <c r="H28" s="69">
         <v>0.5</v>
       </c>
-      <c r="I28" s="90"/>
-      <c r="J28" s="104">
+      <c r="I28" s="57"/>
+      <c r="J28" s="70">
         <v>84</v>
       </c>
-      <c r="K28" s="105">
+      <c r="K28" s="71">
         <v>20</v>
       </c>
-      <c r="L28" s="106">
+      <c r="L28" s="72">
         <v>6.5</v>
       </c>
-      <c r="M28" s="107">
+      <c r="M28" s="73">
         <v>110.5</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="P28" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q28" s="96">
+      <c r="P28" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" s="63">
         <v>55.25</v>
       </c>
-      <c r="R28" s="97" t="s">
-        <v>43</v>
+      <c r="R28" s="64" t="s">
+        <v>42</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T28" s="4">
         <v>9</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="111"/>
-      <c r="C29" s="112">
+      <c r="B29" s="141"/>
+      <c r="C29" s="77">
         <v>4</v>
       </c>
-      <c r="D29" s="112">
+      <c r="D29" s="77">
         <v>4</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="80">
         <v>57</v>
       </c>
-      <c r="F29" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="115">
+      <c r="H29" s="81">
+        <v>1</v>
+      </c>
+      <c r="I29" s="57"/>
+      <c r="J29" s="82">
+        <v>84</v>
+      </c>
+      <c r="K29" s="83">
+        <v>20</v>
+      </c>
+      <c r="L29" s="84">
+        <v>6.5</v>
+      </c>
+      <c r="M29" s="85">
+        <v>110.5</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="P29" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="75">
+        <v>55.25</v>
+      </c>
+      <c r="R29" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="H29" s="116">
-        <v>1</v>
-      </c>
-      <c r="I29" s="90"/>
-      <c r="J29" s="117">
-        <v>84</v>
-      </c>
-      <c r="K29" s="118">
-        <v>20</v>
-      </c>
-      <c r="L29" s="119">
-        <v>6.5</v>
-      </c>
-      <c r="M29" s="120">
-        <v>110.5</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="P29" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q29" s="109">
-        <v>55.25</v>
-      </c>
-      <c r="R29" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="T29" s="4">
         <v>9</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="84">
+      <c r="B30" s="139">
         <v>5</v>
       </c>
-      <c r="C30" s="85">
+      <c r="C30" s="52">
         <v>5</v>
       </c>
-      <c r="D30" s="85">
+      <c r="D30" s="52">
         <v>5</v>
       </c>
-      <c r="E30" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="88">
+      <c r="E30" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="55">
         <v>84</v>
       </c>
-      <c r="H30" s="89">
+      <c r="H30" s="56">
         <v>1</v>
       </c>
-      <c r="I30" s="90"/>
-      <c r="J30" s="91">
+      <c r="I30" s="57"/>
+      <c r="J30" s="58">
         <v>72</v>
       </c>
-      <c r="K30" s="92">
+      <c r="K30" s="59">
         <v>20</v>
       </c>
-      <c r="L30" s="93">
-        <v>2</v>
-      </c>
-      <c r="M30" s="94">
+      <c r="L30" s="60">
+        <v>2</v>
+      </c>
+      <c r="M30" s="61">
         <v>94</v>
       </c>
       <c r="N30" s="1"/>
-      <c r="P30" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q30" s="96">
+      <c r="P30" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q30" s="63">
         <v>47</v>
       </c>
-      <c r="R30" s="97" t="s">
-        <v>43</v>
+      <c r="R30" s="64" t="s">
+        <v>42</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T30" s="4">
         <v>4.5</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="98"/>
-      <c r="C31" s="99">
+      <c r="B31" s="140"/>
+      <c r="C31" s="65">
         <v>5</v>
       </c>
-      <c r="D31" s="99">
+      <c r="D31" s="65">
         <v>5</v>
       </c>
-      <c r="E31" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="102">
+      <c r="E31" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="68">
         <v>87</v>
       </c>
-      <c r="H31" s="103">
+      <c r="H31" s="69">
         <v>1</v>
       </c>
-      <c r="I31" s="90"/>
-      <c r="J31" s="104">
+      <c r="I31" s="57"/>
+      <c r="J31" s="70">
         <v>72</v>
       </c>
-      <c r="K31" s="105">
+      <c r="K31" s="71">
         <v>20</v>
       </c>
-      <c r="L31" s="106">
-        <v>2</v>
-      </c>
-      <c r="M31" s="107">
+      <c r="L31" s="72">
+        <v>2</v>
+      </c>
+      <c r="M31" s="73">
         <v>94</v>
       </c>
       <c r="N31" s="1"/>
-      <c r="P31" s="108" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q31" s="109">
+      <c r="P31" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q31" s="75">
         <v>47</v>
       </c>
-      <c r="R31" s="110" t="s">
-        <v>43</v>
+      <c r="R31" s="76" t="s">
+        <v>42</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T31" s="4">
         <v>4.5</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="111"/>
-      <c r="C32" s="112">
+      <c r="B32" s="141"/>
+      <c r="C32" s="77">
         <v>5</v>
       </c>
-      <c r="D32" s="112">
+      <c r="D32" s="77">
         <v>5</v>
       </c>
-      <c r="E32" s="113" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="115">
+      <c r="E32" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="80">
         <v>22</v>
       </c>
-      <c r="H32" s="116">
+      <c r="H32" s="81">
         <v>2.5</v>
       </c>
-      <c r="I32" s="90"/>
-      <c r="J32" s="117">
+      <c r="I32" s="57"/>
+      <c r="J32" s="82">
         <v>72</v>
       </c>
-      <c r="K32" s="118">
+      <c r="K32" s="83">
         <v>20</v>
       </c>
-      <c r="L32" s="119">
-        <v>2</v>
-      </c>
-      <c r="M32" s="120">
+      <c r="L32" s="84">
+        <v>2</v>
+      </c>
+      <c r="M32" s="85">
         <v>94</v>
       </c>
       <c r="N32" s="1"/>
-      <c r="P32" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q32" s="96">
+      <c r="P32" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q32" s="63">
         <v>47</v>
       </c>
-      <c r="R32" s="97" t="s">
-        <v>43</v>
+      <c r="R32" s="64" t="s">
+        <v>42</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T32" s="4">
         <v>4.5</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="84">
+      <c r="B33" s="139">
         <v>6</v>
       </c>
-      <c r="C33" s="85">
+      <c r="C33" s="52">
         <v>6</v>
       </c>
-      <c r="D33" s="85">
+      <c r="D33" s="52">
         <v>6</v>
       </c>
-      <c r="E33" s="86" t="s">
+      <c r="E33" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="55">
+        <v>79</v>
+      </c>
+      <c r="H33" s="56">
+        <v>1</v>
+      </c>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58">
+        <v>60</v>
+      </c>
+      <c r="K33" s="59">
+        <v>21.5</v>
+      </c>
+      <c r="L33" s="60">
+        <v>0</v>
+      </c>
+      <c r="M33" s="61">
+        <v>81.5</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="P33" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="75">
+        <v>40.75</v>
+      </c>
+      <c r="R33" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T33" s="4">
+        <v>2</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="140"/>
+      <c r="C34" s="65">
+        <v>6</v>
+      </c>
+      <c r="D34" s="65">
+        <v>6</v>
+      </c>
+      <c r="E34" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="88">
-        <v>79</v>
-      </c>
-      <c r="H33" s="89">
-        <v>1</v>
-      </c>
-      <c r="I33" s="90"/>
-      <c r="J33" s="91">
+      <c r="F34" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="68">
+        <v>198</v>
+      </c>
+      <c r="H34" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="57"/>
+      <c r="J34" s="70">
         <v>60</v>
       </c>
-      <c r="K33" s="92">
+      <c r="K34" s="71">
         <v>21.5</v>
       </c>
-      <c r="L33" s="93">
-        <v>0</v>
-      </c>
-      <c r="M33" s="94">
+      <c r="L34" s="72">
+        <v>0</v>
+      </c>
+      <c r="M34" s="73">
         <v>81.5</v>
       </c>
-      <c r="N33" s="1"/>
-      <c r="P33" s="108" t="s">
+      <c r="N34" s="1"/>
+      <c r="P34" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="Q33" s="109">
+      <c r="Q34" s="63">
         <v>40.75</v>
       </c>
-      <c r="R33" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T33" s="4">
-        <v>2</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="98"/>
-      <c r="C34" s="99">
+      <c r="R34" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T34" s="4">
+        <v>2</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="141"/>
+      <c r="C35" s="77">
         <v>6</v>
       </c>
-      <c r="D34" s="99">
+      <c r="D35" s="77">
         <v>6</v>
       </c>
-      <c r="E34" s="100" t="s">
+      <c r="E35" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="102">
-        <v>198</v>
-      </c>
-      <c r="H34" s="103">
+      <c r="F35" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="80">
+        <v>103</v>
+      </c>
+      <c r="H35" s="81">
         <v>0.5</v>
       </c>
-      <c r="I34" s="90"/>
-      <c r="J34" s="104">
+      <c r="I35" s="57"/>
+      <c r="J35" s="82">
         <v>60</v>
       </c>
-      <c r="K34" s="105">
+      <c r="K35" s="83">
         <v>21.5</v>
       </c>
-      <c r="L34" s="106">
-        <v>0</v>
-      </c>
-      <c r="M34" s="107">
+      <c r="L35" s="84">
+        <v>0</v>
+      </c>
+      <c r="M35" s="85">
         <v>81.5</v>
       </c>
-      <c r="N34" s="1"/>
-      <c r="P34" s="95" t="s">
+      <c r="N35" s="1"/>
+      <c r="P35" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="Q34" s="96">
+      <c r="Q35" s="75">
         <v>40.75</v>
       </c>
-      <c r="R34" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T34" s="4">
-        <v>2</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="111"/>
-      <c r="C35" s="112">
-        <v>6</v>
-      </c>
-      <c r="D35" s="112">
-        <v>6</v>
-      </c>
-      <c r="E35" s="113" t="s">
+      <c r="R35" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T35" s="4">
+        <v>2</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="115">
-        <v>103</v>
-      </c>
-      <c r="H35" s="116">
-        <v>0.5</v>
-      </c>
-      <c r="I35" s="90"/>
-      <c r="J35" s="117">
-        <v>60</v>
-      </c>
-      <c r="K35" s="118">
-        <v>21.5</v>
-      </c>
-      <c r="L35" s="119">
-        <v>0</v>
-      </c>
-      <c r="M35" s="120">
-        <v>81.5</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="P35" s="108" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q35" s="109">
-        <v>40.75</v>
-      </c>
-      <c r="R35" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T35" s="4">
-        <v>2</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="129" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="55"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="130"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="132"/>
       <c r="S37" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="132" t="s">
+      <c r="B38" s="150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="133" t="s">
+      <c r="F38" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="134" t="s">
+      <c r="G38" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="134" t="s">
+      <c r="H38" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="135" t="s">
+      <c r="I38" s="97"/>
+      <c r="J38" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="136"/>
-      <c r="J38" s="132" t="s">
+      <c r="K38" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="134" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" s="134" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" s="137" t="s">
+      <c r="L38" s="156" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="164" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38" s="26"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="N38" s="52"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="138" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q38" s="139"/>
-      <c r="R38" s="140"/>
+      <c r="Q38" s="166"/>
+      <c r="R38" s="167"/>
       <c r="S38" s="4"/>
     </row>
     <row r="39" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="141"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="143" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39" s="146"/>
-      <c r="M39" s="145"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="147"/>
-      <c r="Q39" s="148"/>
-      <c r="R39" s="149"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="154" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="162"/>
+      <c r="M39" s="160"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="168"/>
+      <c r="Q39" s="169"/>
+      <c r="R39" s="170"/>
     </row>
     <row r="40" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="141"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="143" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" s="146"/>
-      <c r="M40" s="145"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="147"/>
-      <c r="Q40" s="148"/>
-      <c r="R40" s="149"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="154" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="162"/>
+      <c r="M40" s="160"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="168"/>
+      <c r="Q40" s="169"/>
+      <c r="R40" s="170"/>
     </row>
     <row r="41" spans="2:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="150"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="152" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="155"/>
-      <c r="M41" s="154"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="155" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="163"/>
+      <c r="M41" s="161"/>
       <c r="N41" s="1"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="157"/>
-      <c r="R41" s="158"/>
+      <c r="P41" s="171"/>
+      <c r="Q41" s="172"/>
+      <c r="R41" s="173"/>
     </row>
     <row r="42" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="72"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="80"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="48"/>
       <c r="N42" s="1"/>
-      <c r="P42" s="81" t="s">
+      <c r="P42" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="Q42" s="82" t="s">
+      <c r="R42" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="R42" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="V42" s="71" t="s">
+      <c r="V42" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="X42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="X42" s="5" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="43" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="84">
+      <c r="B43" s="139">
         <v>1</v>
       </c>
-      <c r="C43" s="85">
+      <c r="C43" s="52">
         <v>1</v>
       </c>
-      <c r="D43" s="159">
-        <v>0</v>
-      </c>
-      <c r="E43" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="88">
+      <c r="D43" s="100">
+        <v>0</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="55">
         <v>14</v>
       </c>
-      <c r="H43" s="89">
+      <c r="H43" s="56">
         <v>5</v>
       </c>
-      <c r="I43" s="90"/>
-      <c r="J43" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="K43" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="L43" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M43" s="94">
+      <c r="I43" s="57"/>
+      <c r="J43" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="61">
         <v>0</v>
       </c>
       <c r="N43" s="1"/>
-      <c r="P43" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q43" s="96">
-        <v>0</v>
-      </c>
-      <c r="R43" s="97" t="s">
-        <v>43</v>
+      <c r="P43" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="63">
+        <v>0</v>
+      </c>
+      <c r="R43" s="64" t="s">
+        <v>42</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T43" s="160">
+        <v>42</v>
+      </c>
+      <c r="T43" s="101">
         <v>8</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V43" s="4">
         <v>21.5</v>
@@ -4267,53 +4268,53 @@
       </c>
     </row>
     <row r="44" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="98"/>
-      <c r="C44" s="99">
+      <c r="B44" s="140"/>
+      <c r="C44" s="65">
         <v>1</v>
       </c>
-      <c r="D44" s="161">
-        <v>0</v>
-      </c>
-      <c r="E44" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="102">
+      <c r="D44" s="102">
+        <v>0</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="68">
         <v>25</v>
       </c>
-      <c r="H44" s="103">
+      <c r="H44" s="69">
         <v>2.5</v>
       </c>
-      <c r="I44" s="90"/>
-      <c r="J44" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="K44" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="L44" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M44" s="107">
+      <c r="I44" s="57"/>
+      <c r="J44" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" s="73">
         <v>0</v>
       </c>
       <c r="N44" s="1"/>
-      <c r="P44" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q44" s="163">
-        <v>0</v>
-      </c>
-      <c r="R44" s="164" t="s">
-        <v>43</v>
+      <c r="P44" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q44" s="104">
+        <v>0</v>
+      </c>
+      <c r="R44" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V44" s="4">
         <v>21.5</v>
@@ -4322,118 +4323,118 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:24" s="44" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="111"/>
-      <c r="C45" s="112">
+    <row r="45" spans="2:24" s="18" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="141"/>
+      <c r="C45" s="77">
         <v>1</v>
       </c>
-      <c r="D45" s="165">
-        <v>0</v>
-      </c>
-      <c r="E45" s="113" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="115">
+      <c r="D45" s="106">
+        <v>0</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="80">
         <v>194</v>
       </c>
-      <c r="H45" s="116">
+      <c r="H45" s="81">
         <v>0.5</v>
       </c>
-      <c r="I45" s="90"/>
-      <c r="J45" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="K45" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="L45" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="M45" s="120">
+      <c r="I45" s="57"/>
+      <c r="J45" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="K45" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="L45" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" s="85">
         <v>0</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="166" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q45" s="167">
-        <v>0</v>
-      </c>
-      <c r="R45" s="168" t="s">
-        <v>43</v>
+      <c r="P45" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="108">
+        <v>0</v>
+      </c>
+      <c r="R45" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T45" s="4"/>
       <c r="U45" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V45" s="4">
         <v>21.5</v>
       </c>
-      <c r="W45" s="57"/>
+      <c r="W45" s="28"/>
       <c r="X45" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="84">
-        <v>2</v>
-      </c>
-      <c r="C46" s="85">
-        <v>2</v>
-      </c>
-      <c r="D46" s="159">
-        <v>0</v>
-      </c>
-      <c r="E46" s="86" t="s">
+      <c r="B46" s="139">
+        <v>2</v>
+      </c>
+      <c r="C46" s="52">
+        <v>2</v>
+      </c>
+      <c r="D46" s="100">
+        <v>0</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="88">
+      <c r="G46" s="55">
         <v>18</v>
       </c>
-      <c r="H46" s="89">
+      <c r="H46" s="56">
         <v>5</v>
       </c>
-      <c r="I46" s="90"/>
-      <c r="J46" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="K46" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="L46" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M46" s="94">
+      <c r="I46" s="57"/>
+      <c r="J46" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" s="61">
         <v>0</v>
       </c>
       <c r="N46" s="1"/>
-      <c r="P46" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q46" s="163">
-        <v>0</v>
-      </c>
-      <c r="R46" s="164" t="s">
-        <v>43</v>
+      <c r="P46" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="104">
+        <v>0</v>
+      </c>
+      <c r="R46" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T46" s="160">
+        <v>42</v>
+      </c>
+      <c r="T46" s="101">
         <v>12.5</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V46" s="4">
         <v>21.5</v>
@@ -4443,53 +4444,53 @@
       </c>
     </row>
     <row r="47" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="98"/>
-      <c r="C47" s="99">
-        <v>2</v>
-      </c>
-      <c r="D47" s="161">
-        <v>0</v>
-      </c>
-      <c r="E47" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="102">
+      <c r="B47" s="140"/>
+      <c r="C47" s="65">
+        <v>2</v>
+      </c>
+      <c r="D47" s="102">
+        <v>0</v>
+      </c>
+      <c r="E47" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="68">
         <v>38</v>
       </c>
-      <c r="H47" s="103">
+      <c r="H47" s="69">
         <v>2.5</v>
       </c>
-      <c r="I47" s="90"/>
-      <c r="J47" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="L47" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M47" s="107">
+      <c r="I47" s="57"/>
+      <c r="J47" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" s="73">
         <v>0</v>
       </c>
       <c r="N47" s="1"/>
-      <c r="P47" s="166" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q47" s="167">
-        <v>0</v>
-      </c>
-      <c r="R47" s="168" t="s">
-        <v>43</v>
+      <c r="P47" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q47" s="108">
+        <v>0</v>
+      </c>
+      <c r="R47" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V47" s="4">
         <v>21.5</v>
@@ -4499,53 +4500,53 @@
       </c>
     </row>
     <row r="48" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="111"/>
-      <c r="C48" s="112">
-        <v>2</v>
-      </c>
-      <c r="D48" s="165">
-        <v>0</v>
-      </c>
-      <c r="E48" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" s="115">
+      <c r="B48" s="141"/>
+      <c r="C48" s="77">
+        <v>2</v>
+      </c>
+      <c r="D48" s="106">
+        <v>0</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="80">
         <v>11</v>
       </c>
-      <c r="H48" s="116">
+      <c r="H48" s="81">
         <v>5</v>
       </c>
-      <c r="I48" s="90"/>
-      <c r="J48" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="L48" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="M48" s="120">
+      <c r="I48" s="57"/>
+      <c r="J48" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="K48" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48" s="85">
         <v>0</v>
       </c>
       <c r="N48" s="1"/>
-      <c r="P48" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q48" s="163">
-        <v>0</v>
-      </c>
-      <c r="R48" s="164" t="s">
-        <v>43</v>
+      <c r="P48" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q48" s="104">
+        <v>0</v>
+      </c>
+      <c r="R48" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V48" s="4">
         <v>21.5</v>
@@ -4555,58 +4556,58 @@
       </c>
     </row>
     <row r="49" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="84">
+      <c r="B49" s="139">
         <v>3</v>
       </c>
-      <c r="C49" s="85">
+      <c r="C49" s="52">
         <v>3</v>
       </c>
-      <c r="D49" s="159">
-        <v>0</v>
-      </c>
-      <c r="E49" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" s="88">
+      <c r="D49" s="100">
+        <v>0</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="55">
         <v>79</v>
       </c>
-      <c r="H49" s="89">
+      <c r="H49" s="56">
         <v>1</v>
       </c>
-      <c r="I49" s="90"/>
-      <c r="J49" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="L49" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M49" s="94">
+      <c r="I49" s="57"/>
+      <c r="J49" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="61">
         <v>0</v>
       </c>
       <c r="N49" s="1"/>
-      <c r="P49" s="166" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q49" s="167">
-        <v>0</v>
-      </c>
-      <c r="R49" s="168" t="s">
-        <v>43</v>
+      <c r="P49" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q49" s="108">
+        <v>0</v>
+      </c>
+      <c r="R49" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T49" s="160">
+        <v>42</v>
+      </c>
+      <c r="T49" s="101">
         <v>2</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V49" s="4">
         <v>21.5</v>
@@ -4616,53 +4617,53 @@
       </c>
     </row>
     <row r="50" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="98"/>
-      <c r="C50" s="99">
+      <c r="B50" s="140"/>
+      <c r="C50" s="65">
         <v>3</v>
       </c>
-      <c r="D50" s="161">
-        <v>0</v>
-      </c>
-      <c r="E50" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" s="102">
+      <c r="D50" s="102">
+        <v>0</v>
+      </c>
+      <c r="E50" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="68">
         <v>198</v>
       </c>
-      <c r="H50" s="103">
+      <c r="H50" s="69">
         <v>0.5</v>
       </c>
-      <c r="I50" s="90"/>
-      <c r="J50" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="K50" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="L50" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M50" s="107">
+      <c r="I50" s="57"/>
+      <c r="J50" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K50" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="L50" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" s="73">
         <v>0</v>
       </c>
       <c r="N50" s="1"/>
-      <c r="P50" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q50" s="163">
-        <v>0</v>
-      </c>
-      <c r="R50" s="164" t="s">
-        <v>43</v>
+      <c r="P50" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q50" s="104">
+        <v>0</v>
+      </c>
+      <c r="R50" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V50" s="4">
         <v>21.5</v>
@@ -4672,53 +4673,53 @@
       </c>
     </row>
     <row r="51" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="111"/>
-      <c r="C51" s="112">
+      <c r="B51" s="141"/>
+      <c r="C51" s="77">
         <v>3</v>
       </c>
-      <c r="D51" s="165">
-        <v>0</v>
-      </c>
-      <c r="E51" s="113" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="115">
+      <c r="D51" s="106">
+        <v>0</v>
+      </c>
+      <c r="E51" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="80">
         <v>103</v>
       </c>
-      <c r="H51" s="116">
+      <c r="H51" s="81">
         <v>0.5</v>
       </c>
-      <c r="I51" s="90"/>
-      <c r="J51" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="K51" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="L51" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="M51" s="120">
+      <c r="I51" s="57"/>
+      <c r="J51" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="L51" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="85">
         <v>0</v>
       </c>
       <c r="N51" s="1"/>
-      <c r="P51" s="166" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q51" s="167">
-        <v>0</v>
-      </c>
-      <c r="R51" s="168" t="s">
-        <v>43</v>
+      <c r="P51" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q51" s="108">
+        <v>0</v>
+      </c>
+      <c r="R51" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V51" s="4">
         <v>21.5</v>
@@ -4728,58 +4729,58 @@
       </c>
     </row>
     <row r="52" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="84">
+      <c r="B52" s="139">
         <v>4</v>
       </c>
-      <c r="C52" s="85">
+      <c r="C52" s="52">
         <v>4</v>
       </c>
-      <c r="D52" s="159">
+      <c r="D52" s="100">
         <v>7</v>
       </c>
-      <c r="E52" s="86" t="s">
+      <c r="E52" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="55">
+        <v>37</v>
+      </c>
+      <c r="H52" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="I52" s="57"/>
+      <c r="J52" s="58">
+        <v>51</v>
+      </c>
+      <c r="K52" s="59">
+        <v>15.5</v>
+      </c>
+      <c r="L52" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="61">
+        <v>66.5</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="P52" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q52" s="104">
+        <v>33.25</v>
+      </c>
+      <c r="R52" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="S52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" s="88">
-        <v>37</v>
-      </c>
-      <c r="H52" s="89">
-        <v>2.5</v>
-      </c>
-      <c r="I52" s="90"/>
-      <c r="J52" s="91">
-        <v>51</v>
-      </c>
-      <c r="K52" s="92">
-        <v>15.5</v>
-      </c>
-      <c r="L52" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M52" s="94">
-        <v>66.5</v>
-      </c>
-      <c r="N52" s="1"/>
-      <c r="P52" s="162" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q52" s="163">
-        <v>33.25</v>
-      </c>
-      <c r="R52" s="164" t="s">
-        <v>43</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="T52" s="160">
+      <c r="T52" s="101">
         <v>6</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V52" s="4">
         <v>15.5</v>
@@ -4789,53 +4790,53 @@
       </c>
     </row>
     <row r="53" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="98"/>
-      <c r="C53" s="99">
+      <c r="B53" s="140"/>
+      <c r="C53" s="65">
         <v>4</v>
       </c>
-      <c r="D53" s="161">
+      <c r="D53" s="102">
         <v>7</v>
       </c>
-      <c r="E53" s="100" t="s">
+      <c r="E53" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="68">
+        <v>53</v>
+      </c>
+      <c r="H53" s="69">
+        <v>1</v>
+      </c>
+      <c r="I53" s="57"/>
+      <c r="J53" s="70">
+        <v>51</v>
+      </c>
+      <c r="K53" s="71">
+        <v>15.5</v>
+      </c>
+      <c r="L53" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M53" s="73">
+        <v>66.5</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="P53" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q53" s="108">
+        <v>33.25</v>
+      </c>
+      <c r="R53" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="S53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" s="102">
-        <v>53</v>
-      </c>
-      <c r="H53" s="103">
-        <v>1</v>
-      </c>
-      <c r="I53" s="90"/>
-      <c r="J53" s="104">
-        <v>51</v>
-      </c>
-      <c r="K53" s="105">
-        <v>15.5</v>
-      </c>
-      <c r="L53" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M53" s="107">
-        <v>66.5</v>
-      </c>
-      <c r="N53" s="1"/>
-      <c r="P53" s="166" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q53" s="167">
-        <v>33.25</v>
-      </c>
-      <c r="R53" s="168" t="s">
-        <v>43</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="U53" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V53" s="4">
         <v>15.5</v>
@@ -4845,53 +4846,53 @@
       </c>
     </row>
     <row r="54" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="111"/>
-      <c r="C54" s="112">
+      <c r="B54" s="141"/>
+      <c r="C54" s="77">
         <v>4</v>
       </c>
-      <c r="D54" s="165">
+      <c r="D54" s="106">
         <v>7</v>
       </c>
-      <c r="E54" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="F54" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" s="115">
+      <c r="E54" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="80">
         <v>21</v>
       </c>
-      <c r="H54" s="116">
+      <c r="H54" s="81">
         <v>2.5</v>
       </c>
-      <c r="I54" s="90"/>
-      <c r="J54" s="117">
+      <c r="I54" s="57"/>
+      <c r="J54" s="82">
         <v>51</v>
       </c>
-      <c r="K54" s="118">
+      <c r="K54" s="83">
         <v>15.5</v>
       </c>
-      <c r="L54" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="M54" s="120">
+      <c r="L54" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M54" s="85">
         <v>66.5</v>
       </c>
       <c r="N54" s="1"/>
-      <c r="P54" s="162" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q54" s="163">
+      <c r="P54" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q54" s="104">
         <v>33.25</v>
       </c>
-      <c r="R54" s="164" t="s">
-        <v>43</v>
+      <c r="R54" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V54" s="4">
         <v>15.5</v>
@@ -4901,58 +4902,58 @@
       </c>
     </row>
     <row r="55" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="84">
+      <c r="B55" s="139">
         <v>5</v>
       </c>
-      <c r="C55" s="85">
+      <c r="C55" s="52">
         <v>5</v>
       </c>
-      <c r="D55" s="159">
+      <c r="D55" s="100">
         <v>9</v>
       </c>
-      <c r="E55" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" s="88">
+      <c r="E55" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="55">
         <v>31</v>
       </c>
-      <c r="H55" s="89">
+      <c r="H55" s="56">
         <v>2.5</v>
       </c>
-      <c r="I55" s="90"/>
-      <c r="J55" s="91">
+      <c r="I55" s="57"/>
+      <c r="J55" s="58">
         <v>39</v>
       </c>
-      <c r="K55" s="92">
+      <c r="K55" s="59">
         <v>3</v>
       </c>
-      <c r="L55" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M55" s="94">
+      <c r="L55" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M55" s="61">
         <v>42</v>
       </c>
       <c r="N55" s="1"/>
-      <c r="P55" s="166" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q55" s="167">
+      <c r="P55" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q55" s="108">
         <v>21</v>
       </c>
-      <c r="R55" s="168" t="s">
-        <v>43</v>
+      <c r="R55" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T55" s="160">
+        <v>50</v>
+      </c>
+      <c r="T55" s="101">
         <v>12.5</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V55" s="4">
         <v>3</v>
@@ -4962,53 +4963,53 @@
       </c>
     </row>
     <row r="56" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="98"/>
-      <c r="C56" s="99">
+      <c r="B56" s="140"/>
+      <c r="C56" s="65">
         <v>5</v>
       </c>
-      <c r="D56" s="161">
+      <c r="D56" s="102">
         <v>9</v>
       </c>
-      <c r="E56" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G56" s="102">
+      <c r="E56" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="68">
         <v>9</v>
       </c>
-      <c r="H56" s="103">
+      <c r="H56" s="69">
         <v>7.5</v>
       </c>
-      <c r="I56" s="90"/>
-      <c r="J56" s="104">
+      <c r="I56" s="57"/>
+      <c r="J56" s="70">
         <v>39</v>
       </c>
-      <c r="K56" s="105">
+      <c r="K56" s="71">
         <v>3</v>
       </c>
-      <c r="L56" s="106" t="s">
+      <c r="L56" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" s="73">
+        <v>42</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="P56" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q56" s="104">
+        <v>21</v>
+      </c>
+      <c r="R56" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="S56" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M56" s="107">
-        <v>42</v>
-      </c>
-      <c r="N56" s="1"/>
-      <c r="P56" s="162" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q56" s="163">
-        <v>21</v>
-      </c>
-      <c r="R56" s="164" t="s">
-        <v>43</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="U56" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V56" s="4">
         <v>3</v>
@@ -5018,53 +5019,53 @@
       </c>
     </row>
     <row r="57" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="111"/>
-      <c r="C57" s="112">
+      <c r="B57" s="141"/>
+      <c r="C57" s="77">
         <v>5</v>
       </c>
-      <c r="D57" s="165">
+      <c r="D57" s="106">
         <v>9</v>
       </c>
-      <c r="E57" s="113" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" s="115">
+      <c r="E57" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="80">
         <v>22</v>
       </c>
-      <c r="H57" s="116">
+      <c r="H57" s="81">
         <v>2.5</v>
       </c>
-      <c r="I57" s="90"/>
-      <c r="J57" s="117">
+      <c r="I57" s="57"/>
+      <c r="J57" s="82">
         <v>39</v>
       </c>
-      <c r="K57" s="118">
+      <c r="K57" s="83">
         <v>3</v>
       </c>
-      <c r="L57" s="119" t="s">
+      <c r="L57" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M57" s="85">
+        <v>42</v>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="P57" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q57" s="108">
+        <v>21</v>
+      </c>
+      <c r="R57" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="S57" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M57" s="120">
-        <v>42</v>
-      </c>
-      <c r="N57" s="1"/>
-      <c r="P57" s="166" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q57" s="167">
-        <v>21</v>
-      </c>
-      <c r="R57" s="168" t="s">
-        <v>43</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="U57" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V57" s="4">
         <v>3</v>
@@ -5074,58 +5075,58 @@
       </c>
     </row>
     <row r="58" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="84">
+      <c r="B58" s="139">
         <v>6</v>
       </c>
-      <c r="C58" s="85">
+      <c r="C58" s="52">
         <v>6</v>
       </c>
-      <c r="D58" s="159">
+      <c r="D58" s="100">
         <v>11</v>
       </c>
-      <c r="E58" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="F58" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="88">
+      <c r="E58" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="55">
         <v>255</v>
       </c>
-      <c r="H58" s="89">
-        <v>0</v>
-      </c>
-      <c r="I58" s="90"/>
-      <c r="J58" s="91">
+      <c r="H58" s="56">
+        <v>0</v>
+      </c>
+      <c r="I58" s="57"/>
+      <c r="J58" s="58">
         <v>28.799999999999997</v>
       </c>
-      <c r="K58" s="92">
+      <c r="K58" s="59">
         <v>2.5</v>
       </c>
-      <c r="L58" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M58" s="94">
+      <c r="L58" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M58" s="61">
         <v>31.299999999999997</v>
       </c>
       <c r="N58" s="1"/>
-      <c r="P58" s="162" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q58" s="163">
+      <c r="P58" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q58" s="104">
         <v>15.649999999999999</v>
       </c>
-      <c r="R58" s="164" t="s">
-        <v>43</v>
+      <c r="R58" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T58" s="160">
+        <v>50</v>
+      </c>
+      <c r="T58" s="101">
         <v>0.5</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V58" s="4">
         <v>2.5</v>
@@ -5135,53 +5136,53 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="98"/>
-      <c r="C59" s="99">
+      <c r="B59" s="140"/>
+      <c r="C59" s="65">
         <v>6</v>
       </c>
-      <c r="D59" s="161">
+      <c r="D59" s="102">
         <v>11</v>
       </c>
-      <c r="E59" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="102">
+      <c r="E59" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="68">
         <v>102</v>
       </c>
-      <c r="H59" s="103">
+      <c r="H59" s="69">
         <v>0.5</v>
       </c>
-      <c r="I59" s="90"/>
-      <c r="J59" s="104">
+      <c r="I59" s="57"/>
+      <c r="J59" s="70">
         <v>28.799999999999997</v>
       </c>
-      <c r="K59" s="105">
+      <c r="K59" s="71">
         <v>2.5</v>
       </c>
-      <c r="L59" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M59" s="107">
+      <c r="L59" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M59" s="73">
         <v>31.299999999999997</v>
       </c>
       <c r="N59" s="1"/>
-      <c r="P59" s="166" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q59" s="167">
+      <c r="P59" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q59" s="108">
         <v>15.649999999999999</v>
       </c>
-      <c r="R59" s="168" t="s">
-        <v>43</v>
+      <c r="R59" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V59" s="4">
         <v>2.5</v>
@@ -5191,53 +5192,53 @@
       </c>
     </row>
     <row r="60" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="111"/>
-      <c r="C60" s="112">
+      <c r="B60" s="141"/>
+      <c r="C60" s="77">
         <v>6</v>
       </c>
-      <c r="D60" s="165">
+      <c r="D60" s="106">
         <v>11</v>
       </c>
-      <c r="E60" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="115">
+      <c r="E60" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="80">
         <v>230</v>
       </c>
-      <c r="H60" s="116">
-        <v>0</v>
-      </c>
-      <c r="I60" s="90"/>
-      <c r="J60" s="117">
+      <c r="H60" s="81">
+        <v>0</v>
+      </c>
+      <c r="I60" s="57"/>
+      <c r="J60" s="82">
         <v>28.799999999999997</v>
       </c>
-      <c r="K60" s="118">
+      <c r="K60" s="83">
         <v>2.5</v>
       </c>
-      <c r="L60" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="M60" s="120">
+      <c r="L60" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" s="85">
         <v>31.299999999999997</v>
       </c>
       <c r="N60" s="1"/>
-      <c r="P60" s="162" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q60" s="163">
+      <c r="P60" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="104">
         <v>15.649999999999999</v>
       </c>
-      <c r="R60" s="164" t="s">
-        <v>43</v>
+      <c r="R60" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V60" s="4">
         <v>2.5</v>
@@ -5247,344 +5248,344 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="84">
+      <c r="B61" s="139">
         <v>7</v>
       </c>
-      <c r="C61" s="85">
+      <c r="C61" s="52">
         <v>7</v>
       </c>
-      <c r="D61" s="159">
+      <c r="D61" s="100">
         <v>13</v>
       </c>
-      <c r="E61" s="86" t="s">
+      <c r="E61" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="55">
+        <v>76</v>
+      </c>
+      <c r="H61" s="56">
+        <v>1</v>
+      </c>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58">
+        <v>22.8</v>
+      </c>
+      <c r="K61" s="59">
+        <v>0</v>
+      </c>
+      <c r="L61" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M61" s="61">
+        <v>22.8</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="P61" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q61" s="108">
+        <v>11.4</v>
+      </c>
+      <c r="R61" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T61" s="101">
+        <v>2.5</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" s="4">
+        <v>0</v>
+      </c>
+      <c r="X61" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="140"/>
+      <c r="C62" s="65">
+        <v>7</v>
+      </c>
+      <c r="D62" s="102">
+        <v>13</v>
+      </c>
+      <c r="E62" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="88">
-        <v>76</v>
-      </c>
-      <c r="H61" s="89">
+      <c r="F62" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="68">
+        <v>101</v>
+      </c>
+      <c r="H62" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="I62" s="57"/>
+      <c r="J62" s="70">
+        <v>22.8</v>
+      </c>
+      <c r="K62" s="71">
+        <v>0</v>
+      </c>
+      <c r="L62" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M62" s="73">
+        <v>22.8</v>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="P62" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q62" s="104">
+        <v>11.4</v>
+      </c>
+      <c r="R62" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V62" s="4">
+        <v>0</v>
+      </c>
+      <c r="X62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="141"/>
+      <c r="C63" s="77">
+        <v>7</v>
+      </c>
+      <c r="D63" s="106">
+        <v>13</v>
+      </c>
+      <c r="E63" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="80">
+        <v>73</v>
+      </c>
+      <c r="H63" s="81">
         <v>1</v>
       </c>
-      <c r="I61" s="90"/>
-      <c r="J61" s="91">
+      <c r="I63" s="57"/>
+      <c r="J63" s="82">
         <v>22.8</v>
       </c>
-      <c r="K61" s="92">
-        <v>0</v>
-      </c>
-      <c r="L61" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M61" s="94">
+      <c r="K63" s="83">
+        <v>0</v>
+      </c>
+      <c r="L63" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M63" s="85">
         <v>22.8</v>
       </c>
-      <c r="N61" s="1"/>
-      <c r="P61" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q61" s="167">
+      <c r="N63" s="1"/>
+      <c r="P63" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="108">
         <v>11.4</v>
       </c>
-      <c r="R61" s="168" t="s">
-        <v>43</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T61" s="160">
-        <v>2.5</v>
-      </c>
-      <c r="U61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V61" s="4">
-        <v>0</v>
-      </c>
-      <c r="X61" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="98"/>
-      <c r="C62" s="99">
-        <v>7</v>
-      </c>
-      <c r="D62" s="161">
-        <v>13</v>
-      </c>
-      <c r="E62" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G62" s="102">
-        <v>101</v>
-      </c>
-      <c r="H62" s="103">
-        <v>0.5</v>
-      </c>
-      <c r="I62" s="90"/>
-      <c r="J62" s="104">
-        <v>22.8</v>
-      </c>
-      <c r="K62" s="105">
-        <v>0</v>
-      </c>
-      <c r="L62" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M62" s="107">
-        <v>22.8</v>
-      </c>
-      <c r="N62" s="1"/>
-      <c r="P62" s="162" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q62" s="163">
-        <v>11.4</v>
-      </c>
-      <c r="R62" s="164" t="s">
-        <v>43</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V62" s="4">
-        <v>0</v>
-      </c>
-      <c r="X62" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="111"/>
-      <c r="C63" s="112">
-        <v>7</v>
-      </c>
-      <c r="D63" s="165">
-        <v>13</v>
-      </c>
-      <c r="E63" s="113" t="s">
+      <c r="R63" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V63" s="4">
+        <v>0</v>
+      </c>
+      <c r="X63" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="110"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="91"/>
+      <c r="J64" s="112"/>
+      <c r="K64" s="111"/>
+      <c r="L64" s="111"/>
+      <c r="M64" s="111"/>
+      <c r="N64" s="113"/>
+      <c r="O64" s="114"/>
+      <c r="P64" s="114"/>
+      <c r="Q64" s="114"/>
+      <c r="R64" s="114"/>
+    </row>
+    <row r="65" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="114"/>
+      <c r="B65" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="21"/>
+      <c r="H65" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" s="115">
-        <v>73</v>
-      </c>
-      <c r="H63" s="116">
-        <v>1</v>
-      </c>
-      <c r="I63" s="90"/>
-      <c r="J63" s="117">
-        <v>22.8</v>
-      </c>
-      <c r="K63" s="118">
-        <v>0</v>
-      </c>
-      <c r="L63" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="M63" s="120">
-        <v>22.8</v>
-      </c>
-      <c r="N63" s="1"/>
-      <c r="P63" s="166" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q63" s="167">
-        <v>11.4</v>
-      </c>
-      <c r="R63" s="168" t="s">
-        <v>43</v>
-      </c>
-      <c r="S63" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U63" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V63" s="4">
-        <v>0</v>
-      </c>
-      <c r="X63" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
-      <c r="E64" s="170"/>
-      <c r="F64" s="171"/>
-      <c r="G64" s="123"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="171"/>
-      <c r="K64" s="170"/>
-      <c r="L64" s="170"/>
-      <c r="M64" s="170"/>
-      <c r="N64" s="172"/>
-      <c r="O64" s="173"/>
-      <c r="P64" s="173"/>
-      <c r="Q64" s="173"/>
-      <c r="R64" s="173"/>
-    </row>
-    <row r="65" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="173"/>
-      <c r="B65" s="129" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="130"/>
-      <c r="D65" s="130"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="47"/>
-      <c r="H65" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="I65" s="49"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="55"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="130"/>
+      <c r="Q65" s="131"/>
+      <c r="R65" s="132"/>
       <c r="S65" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="173"/>
-      <c r="B66" s="59" t="s">
+      <c r="A66" s="114"/>
+      <c r="B66" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61" t="s">
+      <c r="F66" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="62" t="s">
+      <c r="G66" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G66" s="62" t="s">
+      <c r="H66" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H66" s="63" t="s">
+      <c r="I66" s="35"/>
+      <c r="J66" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="64"/>
-      <c r="J66" s="65" t="s">
+      <c r="K66" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="M66" s="67" t="s">
+      <c r="L66" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M66" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N66" s="1"/>
+      <c r="P66" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="N66" s="1"/>
-      <c r="P66" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q66" s="69"/>
-      <c r="R66" s="70"/>
+      <c r="Q66" s="134"/>
+      <c r="R66" s="135"/>
     </row>
     <row r="67" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="173"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="77"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="80"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="48"/>
       <c r="N67" s="1"/>
-      <c r="P67" s="81" t="s">
+      <c r="P67" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q67" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="Q67" s="82" t="s">
+      <c r="R67" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="R67" s="83" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="68" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="173"/>
-      <c r="B68" s="84">
+      <c r="A68" s="114"/>
+      <c r="B68" s="139">
         <v>1</v>
       </c>
-      <c r="C68" s="85">
+      <c r="C68" s="52">
         <v>1</v>
       </c>
-      <c r="D68" s="159">
-        <v>0</v>
-      </c>
-      <c r="E68" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G68" s="88">
+      <c r="D68" s="100">
+        <v>0</v>
+      </c>
+      <c r="E68" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" s="55">
         <v>10</v>
       </c>
-      <c r="H68" s="89">
+      <c r="H68" s="56">
         <v>7.5</v>
       </c>
-      <c r="I68" s="90"/>
-      <c r="J68" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="K68" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="L68" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M68" s="94">
+      <c r="I68" s="57"/>
+      <c r="J68" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L68" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M68" s="61">
         <v>0</v>
       </c>
       <c r="N68" s="1"/>
-      <c r="P68" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q68" s="96">
-        <v>0</v>
-      </c>
-      <c r="R68" s="97" t="s">
-        <v>43</v>
+      <c r="P68" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q68" s="63">
+        <v>0</v>
+      </c>
+      <c r="R68" s="64" t="s">
+        <v>42</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T68" s="160">
+        <v>42</v>
+      </c>
+      <c r="T68" s="101">
         <v>20</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V68" s="4">
         <v>20</v>
@@ -5594,54 +5595,54 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="173"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="99">
+      <c r="A69" s="114"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="65">
         <v>1</v>
       </c>
-      <c r="D69" s="161">
-        <v>0</v>
-      </c>
-      <c r="E69" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G69" s="102">
+      <c r="D69" s="102">
+        <v>0</v>
+      </c>
+      <c r="E69" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="68">
         <v>19</v>
       </c>
-      <c r="H69" s="103">
+      <c r="H69" s="69">
         <v>5</v>
       </c>
-      <c r="I69" s="90"/>
-      <c r="J69" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="K69" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="L69" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M69" s="107">
+      <c r="I69" s="57"/>
+      <c r="J69" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="L69" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M69" s="73">
         <v>0</v>
       </c>
       <c r="N69" s="1"/>
-      <c r="P69" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q69" s="163">
-        <v>0</v>
-      </c>
-      <c r="R69" s="164" t="s">
-        <v>43</v>
+      <c r="P69" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q69" s="104">
+        <v>0</v>
+      </c>
+      <c r="R69" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U69" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V69" s="4">
         <v>20</v>
@@ -5651,54 +5652,54 @@
       </c>
     </row>
     <row r="70" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="173"/>
-      <c r="B70" s="111"/>
-      <c r="C70" s="112">
+      <c r="A70" s="114"/>
+      <c r="B70" s="141"/>
+      <c r="C70" s="77">
         <v>1</v>
       </c>
-      <c r="D70" s="165">
-        <v>0</v>
-      </c>
-      <c r="E70" s="113" t="s">
-        <v>49</v>
-      </c>
-      <c r="F70" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G70" s="115">
+      <c r="D70" s="106">
+        <v>0</v>
+      </c>
+      <c r="E70" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="80">
         <v>6</v>
       </c>
-      <c r="H70" s="116">
+      <c r="H70" s="81">
         <v>7.5</v>
       </c>
-      <c r="I70" s="90"/>
-      <c r="J70" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="K70" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="L70" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="M70" s="120">
+      <c r="I70" s="57"/>
+      <c r="J70" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="K70" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="L70" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M70" s="85">
         <v>0</v>
       </c>
       <c r="N70" s="1"/>
-      <c r="P70" s="166" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q70" s="167">
-        <v>0</v>
-      </c>
-      <c r="R70" s="168" t="s">
-        <v>43</v>
+      <c r="P70" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q70" s="108">
+        <v>0</v>
+      </c>
+      <c r="R70" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U70" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V70" s="4">
         <v>20</v>
@@ -5708,59 +5709,59 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="173"/>
-      <c r="B71" s="84">
-        <v>2</v>
-      </c>
-      <c r="C71" s="85">
-        <v>2</v>
-      </c>
-      <c r="D71" s="159">
-        <v>0</v>
-      </c>
-      <c r="E71" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" s="88">
+      <c r="A71" s="114"/>
+      <c r="B71" s="139">
+        <v>2</v>
+      </c>
+      <c r="C71" s="52">
+        <v>2</v>
+      </c>
+      <c r="D71" s="100">
+        <v>0</v>
+      </c>
+      <c r="E71" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="55">
         <v>8</v>
       </c>
-      <c r="H71" s="89">
+      <c r="H71" s="56">
         <v>7.5</v>
       </c>
-      <c r="I71" s="90"/>
-      <c r="J71" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="K71" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="L71" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M71" s="94">
+      <c r="I71" s="57"/>
+      <c r="J71" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="K71" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L71" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" s="61">
         <v>0</v>
       </c>
       <c r="N71" s="1"/>
-      <c r="P71" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q71" s="163">
-        <v>0</v>
-      </c>
-      <c r="R71" s="164" t="s">
-        <v>43</v>
+      <c r="P71" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q71" s="104">
+        <v>0</v>
+      </c>
+      <c r="R71" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T71" s="160">
+        <v>42</v>
+      </c>
+      <c r="T71" s="101">
         <v>9</v>
       </c>
       <c r="U71" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V71" s="4">
         <v>20</v>
@@ -5770,54 +5771,54 @@
       </c>
     </row>
     <row r="72" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="173"/>
-      <c r="B72" s="98"/>
-      <c r="C72" s="99">
-        <v>2</v>
-      </c>
-      <c r="D72" s="161">
-        <v>0</v>
-      </c>
-      <c r="E72" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="F72" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G72" s="102">
+      <c r="A72" s="114"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="65">
+        <v>2</v>
+      </c>
+      <c r="D72" s="102">
+        <v>0</v>
+      </c>
+      <c r="E72" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="68">
         <v>128</v>
       </c>
-      <c r="H72" s="103">
+      <c r="H72" s="69">
         <v>0.5</v>
       </c>
-      <c r="I72" s="90"/>
-      <c r="J72" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="K72" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="L72" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M72" s="107">
+      <c r="I72" s="57"/>
+      <c r="J72" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K72" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="L72" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M72" s="73">
         <v>0</v>
       </c>
       <c r="N72" s="1"/>
-      <c r="P72" s="166" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q72" s="167">
-        <v>0</v>
-      </c>
-      <c r="R72" s="168" t="s">
-        <v>43</v>
+      <c r="P72" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q72" s="108">
+        <v>0</v>
+      </c>
+      <c r="R72" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U72" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V72" s="4">
         <v>20</v>
@@ -5827,54 +5828,54 @@
       </c>
     </row>
     <row r="73" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="173"/>
-      <c r="B73" s="111"/>
-      <c r="C73" s="112">
-        <v>2</v>
-      </c>
-      <c r="D73" s="165">
-        <v>0</v>
-      </c>
-      <c r="E73" s="113" t="s">
+      <c r="A73" s="114"/>
+      <c r="B73" s="141"/>
+      <c r="C73" s="77">
+        <v>2</v>
+      </c>
+      <c r="D73" s="106">
+        <v>0</v>
+      </c>
+      <c r="E73" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="80">
         <v>57</v>
       </c>
-      <c r="F73" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G73" s="115">
-        <v>57</v>
-      </c>
-      <c r="H73" s="116">
+      <c r="H73" s="81">
         <v>1</v>
       </c>
-      <c r="I73" s="90"/>
-      <c r="J73" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="K73" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="L73" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="M73" s="120">
+      <c r="I73" s="57"/>
+      <c r="J73" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="L73" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M73" s="85">
         <v>0</v>
       </c>
       <c r="N73" s="1"/>
-      <c r="P73" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q73" s="163">
-        <v>0</v>
-      </c>
-      <c r="R73" s="164" t="s">
-        <v>43</v>
+      <c r="P73" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q73" s="104">
+        <v>0</v>
+      </c>
+      <c r="R73" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V73" s="4">
         <v>20</v>
@@ -5884,59 +5885,59 @@
       </c>
     </row>
     <row r="74" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="173"/>
-      <c r="B74" s="84">
+      <c r="A74" s="114"/>
+      <c r="B74" s="139">
         <v>3</v>
       </c>
-      <c r="C74" s="85">
+      <c r="C74" s="52">
         <v>3</v>
       </c>
-      <c r="D74" s="159">
-        <v>0</v>
-      </c>
-      <c r="E74" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="F74" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G74" s="88">
+      <c r="D74" s="100">
+        <v>0</v>
+      </c>
+      <c r="E74" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" s="55">
         <v>84</v>
       </c>
-      <c r="H74" s="89">
+      <c r="H74" s="56">
         <v>1</v>
       </c>
-      <c r="I74" s="90"/>
-      <c r="J74" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="K74" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="L74" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M74" s="94">
+      <c r="I74" s="57"/>
+      <c r="J74" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L74" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M74" s="61">
         <v>0</v>
       </c>
       <c r="N74" s="1"/>
-      <c r="P74" s="166" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q74" s="167">
-        <v>0</v>
-      </c>
-      <c r="R74" s="168" t="s">
-        <v>43</v>
+      <c r="P74" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q74" s="108">
+        <v>0</v>
+      </c>
+      <c r="R74" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T74" s="160">
+        <v>42</v>
+      </c>
+      <c r="T74" s="101">
         <v>4.5</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V74" s="4">
         <v>20</v>
@@ -5946,54 +5947,54 @@
       </c>
     </row>
     <row r="75" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="173"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="99">
+      <c r="A75" s="114"/>
+      <c r="B75" s="140"/>
+      <c r="C75" s="65">
         <v>3</v>
       </c>
-      <c r="D75" s="161">
-        <v>0</v>
-      </c>
-      <c r="E75" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="F75" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G75" s="102">
+      <c r="D75" s="102">
+        <v>0</v>
+      </c>
+      <c r="E75" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" s="68">
         <v>87</v>
       </c>
-      <c r="H75" s="103">
+      <c r="H75" s="69">
         <v>1</v>
       </c>
-      <c r="I75" s="90"/>
-      <c r="J75" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="K75" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="L75" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M75" s="107">
+      <c r="I75" s="57"/>
+      <c r="J75" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K75" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="L75" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M75" s="73">
         <v>0</v>
       </c>
       <c r="N75" s="1"/>
-      <c r="P75" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q75" s="163">
-        <v>0</v>
-      </c>
-      <c r="R75" s="164" t="s">
-        <v>43</v>
+      <c r="P75" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q75" s="104">
+        <v>0</v>
+      </c>
+      <c r="R75" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U75" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V75" s="4">
         <v>20</v>
@@ -6003,54 +6004,54 @@
       </c>
     </row>
     <row r="76" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="173"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="112">
+      <c r="A76" s="114"/>
+      <c r="B76" s="141"/>
+      <c r="C76" s="77">
         <v>3</v>
       </c>
-      <c r="D76" s="165">
-        <v>0</v>
-      </c>
-      <c r="E76" s="113" t="s">
-        <v>61</v>
-      </c>
-      <c r="F76" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G76" s="115">
+      <c r="D76" s="106">
+        <v>0</v>
+      </c>
+      <c r="E76" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" s="80">
         <v>22</v>
       </c>
-      <c r="H76" s="116">
+      <c r="H76" s="81">
         <v>2.5</v>
       </c>
-      <c r="I76" s="90"/>
-      <c r="J76" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="K76" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="L76" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="M76" s="120">
+      <c r="I76" s="57"/>
+      <c r="J76" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="K76" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="L76" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M76" s="85">
         <v>0</v>
       </c>
       <c r="N76" s="1"/>
-      <c r="P76" s="166" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q76" s="167">
-        <v>0</v>
-      </c>
-      <c r="R76" s="168" t="s">
-        <v>43</v>
+      <c r="P76" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q76" s="108">
+        <v>0</v>
+      </c>
+      <c r="R76" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U76" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V76" s="4">
         <v>20</v>
@@ -6060,59 +6061,59 @@
       </c>
     </row>
     <row r="77" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="173"/>
-      <c r="B77" s="84">
+      <c r="A77" s="114"/>
+      <c r="B77" s="139">
         <v>4</v>
       </c>
-      <c r="C77" s="85">
+      <c r="C77" s="52">
         <v>4</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="100">
         <v>7</v>
       </c>
-      <c r="E77" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G77" s="88">
+      <c r="E77" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="55">
         <v>184</v>
       </c>
-      <c r="H77" s="89">
+      <c r="H77" s="56">
         <v>0.5</v>
       </c>
-      <c r="I77" s="90"/>
-      <c r="J77" s="91">
+      <c r="I77" s="57"/>
+      <c r="J77" s="58">
         <v>51</v>
       </c>
-      <c r="K77" s="92">
+      <c r="K77" s="59">
         <v>16</v>
       </c>
-      <c r="L77" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M77" s="94">
+      <c r="L77" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M77" s="61">
         <v>67</v>
       </c>
       <c r="N77" s="1"/>
-      <c r="P77" s="162" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q77" s="163">
+      <c r="P77" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q77" s="104">
         <v>33.5</v>
       </c>
-      <c r="R77" s="164" t="s">
-        <v>43</v>
+      <c r="R77" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T77" s="160">
+        <v>57</v>
+      </c>
+      <c r="T77" s="101">
         <v>4</v>
       </c>
       <c r="U77" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V77" s="4">
         <v>16</v>
@@ -6122,54 +6123,54 @@
       </c>
     </row>
     <row r="78" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="173"/>
-      <c r="B78" s="98"/>
-      <c r="C78" s="99">
+      <c r="A78" s="114"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="65">
         <v>4</v>
       </c>
-      <c r="D78" s="161">
+      <c r="D78" s="102">
         <v>7</v>
       </c>
-      <c r="E78" s="100" t="s">
+      <c r="E78" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="68">
+        <v>58</v>
+      </c>
+      <c r="H78" s="69">
+        <v>1</v>
+      </c>
+      <c r="I78" s="57"/>
+      <c r="J78" s="70">
+        <v>51</v>
+      </c>
+      <c r="K78" s="71">
+        <v>16</v>
+      </c>
+      <c r="L78" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M78" s="73">
+        <v>67</v>
+      </c>
+      <c r="N78" s="1"/>
+      <c r="P78" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q78" s="108">
+        <v>33.5</v>
+      </c>
+      <c r="R78" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="S78" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F78" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G78" s="102">
-        <v>58</v>
-      </c>
-      <c r="H78" s="103">
-        <v>1</v>
-      </c>
-      <c r="I78" s="90"/>
-      <c r="J78" s="104">
-        <v>51</v>
-      </c>
-      <c r="K78" s="105">
-        <v>16</v>
-      </c>
-      <c r="L78" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M78" s="107">
-        <v>67</v>
-      </c>
-      <c r="N78" s="1"/>
-      <c r="P78" s="166" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q78" s="167">
-        <v>33.5</v>
-      </c>
-      <c r="R78" s="168" t="s">
-        <v>43</v>
-      </c>
-      <c r="S78" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="U78" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V78" s="4">
         <v>16</v>
@@ -6179,54 +6180,54 @@
       </c>
     </row>
     <row r="79" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="173"/>
-      <c r="B79" s="111"/>
-      <c r="C79" s="112">
+      <c r="A79" s="114"/>
+      <c r="B79" s="141"/>
+      <c r="C79" s="77">
         <v>4</v>
       </c>
-      <c r="D79" s="165">
+      <c r="D79" s="106">
         <v>7</v>
       </c>
-      <c r="E79" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="F79" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" s="115">
+      <c r="E79" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="80">
         <v>27</v>
       </c>
-      <c r="H79" s="116">
+      <c r="H79" s="81">
         <v>2.5</v>
       </c>
-      <c r="I79" s="90"/>
-      <c r="J79" s="117">
+      <c r="I79" s="57"/>
+      <c r="J79" s="82">
         <v>51</v>
       </c>
-      <c r="K79" s="118">
+      <c r="K79" s="83">
         <v>16</v>
       </c>
-      <c r="L79" s="119" t="s">
+      <c r="L79" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M79" s="85">
+        <v>67</v>
+      </c>
+      <c r="N79" s="1"/>
+      <c r="P79" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q79" s="104">
+        <v>33.5</v>
+      </c>
+      <c r="R79" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="S79" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M79" s="120">
-        <v>67</v>
-      </c>
-      <c r="N79" s="1"/>
-      <c r="P79" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q79" s="163">
-        <v>33.5</v>
-      </c>
-      <c r="R79" s="164" t="s">
-        <v>43</v>
-      </c>
-      <c r="S79" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="U79" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V79" s="4">
         <v>16</v>
@@ -6236,59 +6237,59 @@
       </c>
     </row>
     <row r="80" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="173"/>
-      <c r="B80" s="84">
+      <c r="A80" s="114"/>
+      <c r="B80" s="139">
         <v>5</v>
       </c>
-      <c r="C80" s="85">
+      <c r="C80" s="52">
         <v>5</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="100">
         <v>9</v>
       </c>
-      <c r="E80" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="F80" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G80" s="88">
+      <c r="E80" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80" s="55">
         <v>12</v>
       </c>
-      <c r="H80" s="89">
+      <c r="H80" s="56">
         <v>5</v>
       </c>
-      <c r="I80" s="90"/>
-      <c r="J80" s="91">
+      <c r="I80" s="57"/>
+      <c r="J80" s="58">
         <v>39</v>
       </c>
-      <c r="K80" s="92">
+      <c r="K80" s="59">
         <v>3.5</v>
       </c>
-      <c r="L80" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M80" s="94">
+      <c r="L80" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M80" s="61">
         <v>42.5</v>
       </c>
       <c r="N80" s="1"/>
-      <c r="P80" s="166" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q80" s="167">
+      <c r="P80" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q80" s="108">
         <v>21.25</v>
       </c>
-      <c r="R80" s="168" t="s">
-        <v>43</v>
+      <c r="R80" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T80" s="160">
+        <v>50</v>
+      </c>
+      <c r="T80" s="101">
         <v>12.5</v>
       </c>
       <c r="U80" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V80" s="4">
         <v>3.5</v>
@@ -6298,54 +6299,54 @@
       </c>
     </row>
     <row r="81" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="173"/>
-      <c r="B81" s="98"/>
-      <c r="C81" s="99">
+      <c r="A81" s="114"/>
+      <c r="B81" s="140"/>
+      <c r="C81" s="65">
         <v>5</v>
       </c>
-      <c r="D81" s="161">
+      <c r="D81" s="102">
         <v>9</v>
       </c>
-      <c r="E81" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="F81" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G81" s="102">
+      <c r="E81" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" s="68">
         <v>20</v>
       </c>
-      <c r="H81" s="103">
+      <c r="H81" s="69">
         <v>5</v>
       </c>
-      <c r="I81" s="90"/>
-      <c r="J81" s="104">
+      <c r="I81" s="57"/>
+      <c r="J81" s="70">
         <v>39</v>
       </c>
-      <c r="K81" s="105">
+      <c r="K81" s="71">
         <v>3.5</v>
       </c>
-      <c r="L81" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M81" s="107">
+      <c r="L81" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M81" s="73">
         <v>42.5</v>
       </c>
       <c r="N81" s="1"/>
-      <c r="P81" s="162" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q81" s="163">
+      <c r="P81" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q81" s="104">
         <v>21.25</v>
       </c>
-      <c r="R81" s="164" t="s">
-        <v>43</v>
+      <c r="R81" s="105" t="s">
+        <v>42</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U81" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V81" s="4">
         <v>3.5</v>
@@ -6355,54 +6356,54 @@
       </c>
     </row>
     <row r="82" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="173"/>
-      <c r="B82" s="111"/>
-      <c r="C82" s="112">
+      <c r="A82" s="114"/>
+      <c r="B82" s="141"/>
+      <c r="C82" s="77">
         <v>5</v>
       </c>
-      <c r="D82" s="165">
+      <c r="D82" s="106">
         <v>9</v>
       </c>
-      <c r="E82" s="113" t="s">
+      <c r="E82" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="F82" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" s="115">
+      <c r="G82" s="80">
         <v>36</v>
       </c>
-      <c r="H82" s="116">
+      <c r="H82" s="81">
         <v>2.5</v>
       </c>
-      <c r="I82" s="90"/>
-      <c r="J82" s="117">
+      <c r="I82" s="57"/>
+      <c r="J82" s="82">
         <v>39</v>
       </c>
-      <c r="K82" s="118">
+      <c r="K82" s="83">
         <v>3.5</v>
       </c>
-      <c r="L82" s="119" t="s">
+      <c r="L82" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M82" s="85">
+        <v>42.5</v>
+      </c>
+      <c r="N82" s="1"/>
+      <c r="P82" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q82" s="108">
+        <v>21.25</v>
+      </c>
+      <c r="R82" s="109">
+        <v>19.5</v>
+      </c>
+      <c r="S82" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M82" s="120">
-        <v>42.5</v>
-      </c>
-      <c r="N82" s="1"/>
-      <c r="P82" s="166" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q82" s="167">
-        <v>21.25</v>
-      </c>
-      <c r="R82" s="168">
-        <v>19.5</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="U82" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V82" s="4">
         <v>3.5</v>
@@ -6412,349 +6413,349 @@
       </c>
     </row>
     <row r="83" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="173"/>
-      <c r="B83" s="84">
+      <c r="A83" s="114"/>
+      <c r="B83" s="139">
         <v>6</v>
       </c>
-      <c r="C83" s="85">
+      <c r="C83" s="52">
         <v>6</v>
       </c>
-      <c r="D83" s="159">
+      <c r="D83" s="100">
         <v>11</v>
       </c>
-      <c r="E83" s="86" t="s">
+      <c r="E83" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G83" s="55">
+        <v>144</v>
+      </c>
+      <c r="H83" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="I83" s="57"/>
+      <c r="J83" s="58">
+        <v>28.799999999999997</v>
+      </c>
+      <c r="K83" s="59">
+        <v>2</v>
+      </c>
+      <c r="L83" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M83" s="61">
+        <v>30.799999999999997</v>
+      </c>
+      <c r="N83" s="1"/>
+      <c r="P83" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q83" s="104">
+        <v>15.399999999999999</v>
+      </c>
+      <c r="R83" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T83" s="101">
+        <v>1.5</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V83" s="4">
+        <v>2</v>
+      </c>
+      <c r="X83" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="114"/>
+      <c r="B84" s="140"/>
+      <c r="C84" s="65">
+        <v>6</v>
+      </c>
+      <c r="D84" s="102">
+        <v>11</v>
+      </c>
+      <c r="E84" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="F83" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G83" s="88">
-        <v>144</v>
-      </c>
-      <c r="H83" s="89">
+      <c r="F84" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" s="68">
+        <v>191</v>
+      </c>
+      <c r="H84" s="69">
         <v>0.5</v>
       </c>
-      <c r="I83" s="90"/>
-      <c r="J83" s="91">
+      <c r="I84" s="57"/>
+      <c r="J84" s="70">
         <v>28.799999999999997</v>
       </c>
-      <c r="K83" s="92">
-        <v>2</v>
-      </c>
-      <c r="L83" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M83" s="94">
+      <c r="K84" s="71">
+        <v>2</v>
+      </c>
+      <c r="L84" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M84" s="73">
         <v>30.799999999999997</v>
       </c>
-      <c r="N83" s="1"/>
-      <c r="P83" s="162" t="s">
+      <c r="N84" s="1"/>
+      <c r="P84" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="Q83" s="163">
+      <c r="Q84" s="108">
         <v>15.399999999999999</v>
       </c>
-      <c r="R83" s="164" t="s">
-        <v>43</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T83" s="160">
-        <v>1.5</v>
-      </c>
-      <c r="U83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V83" s="4">
-        <v>2</v>
-      </c>
-      <c r="X83" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="173"/>
-      <c r="B84" s="98"/>
-      <c r="C84" s="99">
+      <c r="R84" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V84" s="4">
+        <v>2</v>
+      </c>
+      <c r="X84" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="114"/>
+      <c r="B85" s="141"/>
+      <c r="C85" s="77">
         <v>6</v>
       </c>
-      <c r="D84" s="161">
+      <c r="D85" s="106">
         <v>11</v>
       </c>
-      <c r="E84" s="100" t="s">
+      <c r="E85" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="F84" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G84" s="102">
-        <v>191</v>
-      </c>
-      <c r="H84" s="103">
+      <c r="F85" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" s="80">
+        <v>145</v>
+      </c>
+      <c r="H85" s="81">
         <v>0.5</v>
       </c>
-      <c r="I84" s="90"/>
-      <c r="J84" s="104">
+      <c r="I85" s="57"/>
+      <c r="J85" s="82">
         <v>28.799999999999997</v>
       </c>
-      <c r="K84" s="105">
-        <v>2</v>
-      </c>
-      <c r="L84" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M84" s="107">
+      <c r="K85" s="83">
+        <v>2</v>
+      </c>
+      <c r="L85" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M85" s="85">
         <v>30.799999999999997</v>
       </c>
-      <c r="N84" s="1"/>
-      <c r="P84" s="166" t="s">
+      <c r="N85" s="1"/>
+      <c r="P85" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="Q84" s="167">
+      <c r="Q85" s="104">
         <v>15.399999999999999</v>
       </c>
-      <c r="R84" s="168" t="s">
-        <v>43</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U84" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V84" s="4">
-        <v>2</v>
-      </c>
-      <c r="X84" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="173"/>
-      <c r="B85" s="111"/>
-      <c r="C85" s="112">
-        <v>6</v>
-      </c>
-      <c r="D85" s="165">
-        <v>11</v>
-      </c>
-      <c r="E85" s="113" t="s">
+      <c r="R85" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V85" s="4">
+        <v>2</v>
+      </c>
+      <c r="X85" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="114"/>
+      <c r="B86" s="139">
+        <v>7</v>
+      </c>
+      <c r="C86" s="52">
+        <v>7</v>
+      </c>
+      <c r="D86" s="100">
+        <v>13</v>
+      </c>
+      <c r="E86" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="F85" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G85" s="115">
-        <v>145</v>
-      </c>
-      <c r="H85" s="116">
+      <c r="F86" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" s="55">
+        <v>95</v>
+      </c>
+      <c r="H86" s="56">
+        <v>1</v>
+      </c>
+      <c r="I86" s="57"/>
+      <c r="J86" s="58">
+        <v>22.8</v>
+      </c>
+      <c r="K86" s="59">
+        <v>0</v>
+      </c>
+      <c r="L86" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M86" s="61">
+        <v>22.8</v>
+      </c>
+      <c r="N86" s="1"/>
+      <c r="P86" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q86" s="108">
+        <v>11.4</v>
+      </c>
+      <c r="R86" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T86" s="101">
+        <v>2</v>
+      </c>
+      <c r="U86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V86" s="4">
+        <v>0</v>
+      </c>
+      <c r="X86" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="114"/>
+      <c r="B87" s="140"/>
+      <c r="C87" s="65">
+        <v>7</v>
+      </c>
+      <c r="D87" s="102">
+        <v>13</v>
+      </c>
+      <c r="E87" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" s="68">
+        <v>196</v>
+      </c>
+      <c r="H87" s="69">
         <v>0.5</v>
       </c>
-      <c r="I85" s="90"/>
-      <c r="J85" s="117">
-        <v>28.799999999999997</v>
-      </c>
-      <c r="K85" s="118">
-        <v>2</v>
-      </c>
-      <c r="L85" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="M85" s="120">
-        <v>30.799999999999997</v>
-      </c>
-      <c r="N85" s="1"/>
-      <c r="P85" s="162" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q85" s="163">
-        <v>15.399999999999999</v>
-      </c>
-      <c r="R85" s="164" t="s">
-        <v>43</v>
-      </c>
-      <c r="S85" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U85" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V85" s="4">
-        <v>2</v>
-      </c>
-      <c r="X85" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="173"/>
-      <c r="B86" s="84">
+      <c r="I87" s="57"/>
+      <c r="J87" s="70">
+        <v>22.8</v>
+      </c>
+      <c r="K87" s="71">
+        <v>0</v>
+      </c>
+      <c r="L87" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M87" s="73">
+        <v>22.8</v>
+      </c>
+      <c r="N87" s="1"/>
+      <c r="P87" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q87" s="104">
+        <v>11.4</v>
+      </c>
+      <c r="R87" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V87" s="4">
+        <v>0</v>
+      </c>
+      <c r="X87" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="114"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="77">
         <v>7</v>
       </c>
-      <c r="C86" s="85">
-        <v>7</v>
-      </c>
-      <c r="D86" s="159">
+      <c r="D88" s="106">
         <v>13</v>
       </c>
-      <c r="E86" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="F86" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G86" s="88">
+      <c r="E88" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="H86" s="89">
-        <v>1</v>
-      </c>
-      <c r="I86" s="90"/>
-      <c r="J86" s="91">
+      <c r="F88" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" s="80">
+        <v>107</v>
+      </c>
+      <c r="H88" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="I88" s="57"/>
+      <c r="J88" s="82">
         <v>22.8</v>
       </c>
-      <c r="K86" s="92">
-        <v>0</v>
-      </c>
-      <c r="L86" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M86" s="94">
+      <c r="K88" s="83">
+        <v>0</v>
+      </c>
+      <c r="L88" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M88" s="85">
         <v>22.8</v>
       </c>
-      <c r="N86" s="1"/>
-      <c r="P86" s="166" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q86" s="167">
+      <c r="N88" s="1"/>
+      <c r="P88" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q88" s="108">
         <v>11.4</v>
       </c>
-      <c r="R86" s="168" t="s">
-        <v>43</v>
-      </c>
-      <c r="S86" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T86" s="160">
-        <v>2</v>
-      </c>
-      <c r="U86" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V86" s="4">
-        <v>0</v>
-      </c>
-      <c r="X86" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="173"/>
-      <c r="B87" s="98"/>
-      <c r="C87" s="99">
-        <v>7</v>
-      </c>
-      <c r="D87" s="161">
-        <v>13</v>
-      </c>
-      <c r="E87" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="F87" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G87" s="102">
-        <v>196</v>
-      </c>
-      <c r="H87" s="103">
-        <v>0.5</v>
-      </c>
-      <c r="I87" s="90"/>
-      <c r="J87" s="104">
-        <v>22.8</v>
-      </c>
-      <c r="K87" s="105">
-        <v>0</v>
-      </c>
-      <c r="L87" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="M87" s="107">
-        <v>22.8</v>
-      </c>
-      <c r="N87" s="1"/>
-      <c r="P87" s="162" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q87" s="163">
-        <v>11.4</v>
-      </c>
-      <c r="R87" s="164" t="s">
-        <v>43</v>
-      </c>
-      <c r="S87" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U87" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V87" s="4">
-        <v>0</v>
-      </c>
-      <c r="X87" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="173"/>
-      <c r="B88" s="111"/>
-      <c r="C88" s="112">
-        <v>7</v>
-      </c>
-      <c r="D88" s="165">
-        <v>13</v>
-      </c>
-      <c r="E88" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="F88" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="G88" s="115">
-        <v>107</v>
-      </c>
-      <c r="H88" s="116">
-        <v>0.5</v>
-      </c>
-      <c r="I88" s="90"/>
-      <c r="J88" s="117">
-        <v>22.8</v>
-      </c>
-      <c r="K88" s="118">
-        <v>0</v>
-      </c>
-      <c r="L88" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="M88" s="120">
-        <v>22.8</v>
-      </c>
-      <c r="N88" s="1"/>
-      <c r="P88" s="166" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q88" s="167">
-        <v>11.4</v>
-      </c>
-      <c r="R88" s="168" t="s">
-        <v>43</v>
+      <c r="R88" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U88" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V88" s="4">
         <v>0</v>
@@ -6764,18 +6765,18 @@
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B89" s="121"/>
-      <c r="C89" s="121"/>
-      <c r="D89" s="121"/>
-      <c r="E89" s="121"/>
-      <c r="F89" s="122"/>
-      <c r="G89" s="123"/>
-      <c r="H89" s="124"/>
-      <c r="I89" s="125"/>
-      <c r="J89" s="126"/>
-      <c r="K89" s="126"/>
-      <c r="L89" s="127"/>
-      <c r="M89" s="128"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="89"/>
+      <c r="I89" s="90"/>
+      <c r="J89" s="91"/>
+      <c r="K89" s="91"/>
+      <c r="L89" s="92"/>
+      <c r="M89" s="93"/>
       <c r="N89" s="1"/>
     </row>
   </sheetData>
@@ -6785,11 +6786,6 @@
     <mergeCell ref="B80:B82"/>
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="B68:B70"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="P38:R41"/>
     <mergeCell ref="B43:B45"/>
@@ -6797,6 +6793,11 @@
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="B68:B70"/>
     <mergeCell ref="P37:R37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="E38:E41"/>
@@ -6807,16 +6808,16 @@
     <mergeCell ref="K38:K41"/>
     <mergeCell ref="L38:L41"/>
     <mergeCell ref="M38:M41"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:M13"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:M13"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="I8:K8"/>
@@ -6825,12 +6826,12 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="L10:M10"/>
+    <mergeCell ref="I7:M7"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="I5:M5"/>
     <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="P18:R35 P43:R63 P68:R88">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -6838,34 +6839,34 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Categories</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F37 F65">
+    <dataValidation type="list" allowBlank="1" sqref="F37 F65" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I37:I40 H37 H65:I65 I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I37:I40 H37 H65:I65 I15" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B65 B15 B37">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B65 B15 B37" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E68:E88 E18:E35 E43:E63">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E68:E88 E18:E35 E43:E63" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>Pools</formula1>
     </dataValidation>
   </dataValidations>
